--- a/SandlerTrainingSLN/Documents/Aug-Sept/ContactsLoadTest.xlsx
+++ b/SandlerTrainingSLN/Documents/Aug-Sept/ContactsLoadTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>LASTNAME</t>
   </si>
@@ -75,12 +75,6 @@
     <t>CallBackCreatedDate</t>
   </si>
   <si>
-    <t>TestContactLN</t>
-  </si>
-  <si>
-    <t>TestContactFN</t>
-  </si>
-  <si>
     <t>888-888-8888</t>
   </si>
   <si>
@@ -91,6 +85,39 @@
   </si>
   <si>
     <t>Meeting next</t>
+  </si>
+  <si>
+    <t>js@sandler.com</t>
+  </si>
+  <si>
+    <t>536-3450488</t>
+  </si>
+  <si>
+    <t>er@gmail.com</t>
+  </si>
+  <si>
+    <t>jr@hotmail.om</t>
+  </si>
+  <si>
+    <t>joan</t>
+  </si>
+  <si>
+    <t>miller</t>
+  </si>
+  <si>
+    <t>arnold</t>
+  </si>
+  <si>
+    <t>dscent</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>geroge</t>
+  </si>
+  <si>
+    <t>bush</t>
   </si>
 </sst>
 </file>
@@ -440,13 +467,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -509,16 +539,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -527,15 +557,96 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>6575678900</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>34535457888</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SandlerTrainingSLN/Documents/Aug-Sept/ContactsLoadTest.xlsx
+++ b/SandlerTrainingSLN/Documents/Aug-Sept/ContactsLoadTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>LASTNAME</t>
   </si>
@@ -75,49 +75,130 @@
     <t>CallBackCreatedDate</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ContactsDepartment</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>LastAttemptedDate</t>
+  </si>
+  <si>
+    <t>LastEmailedDate</t>
+  </si>
+  <si>
+    <t>LastMeetingDate</t>
+  </si>
+  <si>
+    <t>LetterSentDate</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>PersonalEmail</t>
+  </si>
+  <si>
+    <t>ReferredBy</t>
+  </si>
+  <si>
+    <t>SpouseName</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Nothing to discuss</t>
+  </si>
+  <si>
+    <t>Meeting next</t>
+  </si>
+  <si>
+    <t>jr@hotmail.om</t>
+  </si>
+  <si>
     <t>888-888-8888</t>
   </si>
   <si>
-    <t>contactln@sandler.com</t>
-  </si>
-  <si>
-    <t>Nothing to discuss</t>
-  </si>
-  <si>
-    <t>Meeting next</t>
-  </si>
-  <si>
-    <t>js@sandler.com</t>
-  </si>
-  <si>
     <t>536-3450488</t>
   </si>
   <si>
-    <t>er@gmail.com</t>
-  </si>
-  <si>
-    <t>jr@hotmail.om</t>
-  </si>
-  <si>
-    <t>joan</t>
-  </si>
-  <si>
-    <t>miller</t>
-  </si>
-  <si>
-    <t>arnold</t>
-  </si>
-  <si>
-    <t>dscent</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>geroge</t>
-  </si>
-  <si>
-    <t>bush</t>
+    <t>testdept</t>
+  </si>
+  <si>
+    <t>testdepty1</t>
+  </si>
+  <si>
+    <t>testdepat1244</t>
+  </si>
+  <si>
+    <t>ContactsRole</t>
+  </si>
+  <si>
+    <t>role1</t>
+  </si>
+  <si>
+    <t>role2</t>
+  </si>
+  <si>
+    <t>role 3</t>
+  </si>
+  <si>
+    <t>role 4</t>
+  </si>
+  <si>
+    <t>Saun</t>
+  </si>
+  <si>
+    <t>Traut</t>
+  </si>
+  <si>
+    <t>st@sanlder.com</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Bachhan</t>
+  </si>
+  <si>
+    <t>ab@ab.com</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Calaghan</t>
+  </si>
+  <si>
+    <t>tc@gmail.com</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Tech</t>
   </si>
 </sst>
 </file>
@@ -162,9 +243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,18 +549,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,164 +572,254 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>29587</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>6575678900</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>40940</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>40969</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>34535457888</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>41276</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
